--- a/data/trans_orig/P6714-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>6794</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2554</v>
+        <v>2747</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15020</v>
+        <v>14659</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02433496110339379</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009149841595090859</v>
+        <v>0.009838850936279118</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05379954326579534</v>
+        <v>0.05250572538890107</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -763,19 +763,19 @@
         <v>5565</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2192</v>
+        <v>1970</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11765</v>
+        <v>11961</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02502892839649037</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009857175830087613</v>
+        <v>0.008861250669742957</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05291078582718575</v>
+        <v>0.053792333399216</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -784,19 +784,19 @@
         <v>12359</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6692</v>
+        <v>6577</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21274</v>
+        <v>21676</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02464262422150068</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01334220473011867</v>
+        <v>0.01311470549263379</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04241710032304077</v>
+        <v>0.04322006840535611</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>13601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7165</v>
+        <v>7266</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23449</v>
+        <v>24123</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04871689046283195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02566393072507618</v>
+        <v>0.02602473129124288</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08399008534195278</v>
+        <v>0.08640469552853051</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -834,19 +834,19 @@
         <v>10649</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5009</v>
+        <v>4999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19477</v>
+        <v>19203</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04789482046065858</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02252535033540706</v>
+        <v>0.02248390547377987</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0875954184225647</v>
+        <v>0.08636475431429079</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -855,19 +855,19 @@
         <v>24250</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14851</v>
+        <v>15022</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36184</v>
+        <v>36624</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0483524343527432</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02961182098530795</v>
+        <v>0.02995173925108677</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07214605937267571</v>
+        <v>0.07302441539487739</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>50295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37935</v>
+        <v>37660</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64885</v>
+        <v>62880</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1801482139732938</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1358790757363935</v>
+        <v>0.1348927433806919</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2324085533599122</v>
+        <v>0.2252269768331243</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -905,19 +905,19 @@
         <v>52171</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40182</v>
+        <v>37695</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65293</v>
+        <v>65191</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2346354098901083</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1807131966572827</v>
+        <v>0.1695293476795195</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2936488122884027</v>
+        <v>0.2931896203490766</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>95</v>
@@ -926,19 +926,19 @@
         <v>102466</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>85921</v>
+        <v>86147</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>122065</v>
+        <v>121056</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.204304540589014</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.171315532096057</v>
+        <v>0.1717657947510476</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2433826150590029</v>
+        <v>0.2413704028265075</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>56494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42874</v>
+        <v>42692</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71207</v>
+        <v>71230</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2023516634871097</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1535700529204519</v>
+        <v>0.152917002100194</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2550522505392767</v>
+        <v>0.2551345725585926</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -976,19 +976,19 @@
         <v>51896</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40165</v>
+        <v>39154</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66579</v>
+        <v>66241</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.233398297288226</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1806371506497551</v>
+        <v>0.1760905893885983</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2994314102799401</v>
+        <v>0.2979133759324882</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -997,19 +997,19 @@
         <v>108390</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89359</v>
+        <v>90277</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>128138</v>
+        <v>127838</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.216115862833382</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1781706793060231</v>
+        <v>0.1800008309282631</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2554902525385079</v>
+        <v>0.2548936913725053</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>152002</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133172</v>
+        <v>135219</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>168113</v>
+        <v>169939</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5444482709733708</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4770034855458889</v>
+        <v>0.4843359292302798</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6021574253073803</v>
+        <v>0.6086976871178649</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>93</v>
@@ -1047,19 +1047,19 @@
         <v>102069</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>86249</v>
+        <v>87148</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>117844</v>
+        <v>119912</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4590425439645168</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3878955570599528</v>
+        <v>0.3919379311690166</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5299920117850624</v>
+        <v>0.5392909447233966</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>235</v>
@@ -1068,19 +1068,19 @@
         <v>254070</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>229718</v>
+        <v>231450</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>277620</v>
+        <v>278122</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5065845380033601</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4580295175553974</v>
+        <v>0.4614817962438179</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5535399132911876</v>
+        <v>0.5545407860667315</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>3975</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1054</v>
+        <v>1016</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9693</v>
+        <v>10018</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01043055949520679</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002764643912504127</v>
+        <v>0.002665542347272966</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02543338970039053</v>
+        <v>0.02628515705634398</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1193,19 +1193,19 @@
         <v>8327</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4158</v>
+        <v>4061</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15700</v>
+        <v>16358</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03260828943455838</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01628198009330547</v>
+        <v>0.01590162390558797</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06148188435733729</v>
+        <v>0.06406144889322733</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1214,19 +1214,19 @@
         <v>12302</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6695</v>
+        <v>6765</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20341</v>
+        <v>21558</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01932831471027568</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01051810807066148</v>
+        <v>0.01062810859267235</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0319593800690764</v>
+        <v>0.03387037376545971</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>11733</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5892</v>
+        <v>5799</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19984</v>
+        <v>20661</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03078459539946195</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01545953324861035</v>
+        <v>0.01521596705888522</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05243364894123078</v>
+        <v>0.05421038058364944</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1264,19 +1264,19 @@
         <v>10044</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5032</v>
+        <v>4804</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21530</v>
+        <v>20096</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03933329318126747</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01970612056877775</v>
+        <v>0.01881200698641668</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08431443387040125</v>
+        <v>0.07869631135534082</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -1285,19 +1285,19 @@
         <v>21777</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13689</v>
+        <v>13623</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>33290</v>
+        <v>34104</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03421435220857259</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02150714121175157</v>
+        <v>0.02140374861751564</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05230405322354663</v>
+        <v>0.05358182709721738</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>52847</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40466</v>
+        <v>40542</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>69079</v>
+        <v>69056</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1386622863395049</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.106176887420878</v>
+        <v>0.1063751362484539</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1812513157057152</v>
+        <v>0.1811911431256983</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -1335,19 +1335,19 @@
         <v>43503</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31213</v>
+        <v>32452</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>56906</v>
+        <v>58296</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1703633599259132</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1222323437751847</v>
+        <v>0.1270840767987519</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2228494713571073</v>
+        <v>0.2282930202162635</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>90</v>
@@ -1356,19 +1356,19 @@
         <v>96350</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>77700</v>
+        <v>76684</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>116425</v>
+        <v>115214</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1513808284805675</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1220787491989224</v>
+        <v>0.1204823903112116</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1829212386465698</v>
+        <v>0.1810186422510971</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>100701</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83627</v>
+        <v>84288</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120310</v>
+        <v>118762</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2642249333864209</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2194244157726978</v>
+        <v>0.2211596155505545</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3156758241705602</v>
+        <v>0.3116125623807156</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -1406,19 +1406,19 @@
         <v>68595</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53729</v>
+        <v>55908</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85325</v>
+        <v>86036</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2686250323493374</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.210407904094128</v>
+        <v>0.2189432882317382</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3341406548715146</v>
+        <v>0.3369250551749989</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>160</v>
@@ -1427,19 +1427,19 @@
         <v>169296</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>146933</v>
+        <v>146317</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>190930</v>
+        <v>191233</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.265990263003166</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2308534278209343</v>
+        <v>0.229885936838113</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2999793033103814</v>
+        <v>0.300456250146197</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>211864</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>191816</v>
+        <v>192592</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>231362</v>
+        <v>230560</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5558976253794053</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5032967690927984</v>
+        <v>0.5053305494982457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6070573910664723</v>
+        <v>0.6049544797772665</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>116</v>
@@ -1477,19 +1477,19 @@
         <v>124887</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>106050</v>
+        <v>107978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>140256</v>
+        <v>141635</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4890700251089234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4153006871344064</v>
+        <v>0.4228522179000552</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5492556659027413</v>
+        <v>0.5546580980309783</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>320</v>
@@ -1498,19 +1498,19 @@
         <v>336751</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>310903</v>
+        <v>310441</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>363760</v>
+        <v>362480</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5290862415974183</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4884753726320687</v>
+        <v>0.4877498639845971</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5715225425403181</v>
+        <v>0.5695115466083364</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>5827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2009</v>
+        <v>1931</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11889</v>
+        <v>11449</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01278302095944629</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004408439124020927</v>
+        <v>0.004237311262657049</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02608205995464356</v>
+        <v>0.02511635699533232</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1636,19 +1636,19 @@
         <v>5827</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2799</v>
+        <v>1947</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12713</v>
+        <v>12525</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007965316623608975</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003826840987536016</v>
+        <v>0.002661967169666712</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01737905418134376</v>
+        <v>0.01712189189556607</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>17309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9166</v>
+        <v>10333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28246</v>
+        <v>28134</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03797307128118393</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02010865568666483</v>
+        <v>0.02266944029684013</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06196799964744863</v>
+        <v>0.06172068107317149</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1686,19 +1686,19 @@
         <v>13058</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6540</v>
+        <v>6855</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22182</v>
+        <v>23335</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04736285281738409</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02372117305047288</v>
+        <v>0.02486591377975594</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08045942697861412</v>
+        <v>0.08464185008290881</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -1707,19 +1707,19 @@
         <v>30367</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20012</v>
+        <v>19977</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43220</v>
+        <v>44001</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04151192108539142</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02735712045867882</v>
+        <v>0.02730878713817745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05908270040247962</v>
+        <v>0.06015109940170679</v>
       </c>
     </row>
     <row r="18">
@@ -1736,19 +1736,19 @@
         <v>57093</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>43720</v>
+        <v>44007</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>73547</v>
+        <v>73300</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1252530265080447</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09591596022533394</v>
+        <v>0.09654512170450384</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1613514806371768</v>
+        <v>0.1608091695767471</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -1757,19 +1757,19 @@
         <v>39939</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29185</v>
+        <v>29799</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>52114</v>
+        <v>53253</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1448658305979767</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1058594773948652</v>
+        <v>0.1080876034050547</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1890269242378802</v>
+        <v>0.1931580639720764</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>93</v>
@@ -1778,19 +1778,19 @@
         <v>97032</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>79373</v>
+        <v>80237</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>115648</v>
+        <v>116261</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1326447605591548</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1085043991296204</v>
+        <v>0.1096852700868534</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1580938332009783</v>
+        <v>0.1589309733634701</v>
       </c>
     </row>
     <row r="19">
@@ -1807,19 +1807,19 @@
         <v>110918</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>92703</v>
+        <v>91545</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>131516</v>
+        <v>131320</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2433381152900515</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2033773693219834</v>
+        <v>0.2008349929447102</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2885255444451892</v>
+        <v>0.2880966574220201</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>77</v>
@@ -1828,19 +1828,19 @@
         <v>79293</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>64549</v>
+        <v>65780</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>94716</v>
+        <v>95587</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2876108475912849</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2341307707414636</v>
+        <v>0.2385947602992928</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.343553831649498</v>
+        <v>0.3467113521391438</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>183</v>
@@ -1849,19 +1849,19 @@
         <v>190212</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>167190</v>
+        <v>166903</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>216473</v>
+        <v>214024</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2600237590861215</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2285529118011102</v>
+        <v>0.2281608902442762</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.295923375052809</v>
+        <v>0.2925753376610934</v>
       </c>
     </row>
     <row r="20">
@@ -1878,19 +1878,19 @@
         <v>264673</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>240263</v>
+        <v>242861</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>284148</v>
+        <v>286093</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5806527659612736</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5271013594071061</v>
+        <v>0.5328003877881498</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6233766364857409</v>
+        <v>0.627645324566902</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>133</v>
@@ -1899,19 +1899,19 @@
         <v>143406</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>127696</v>
+        <v>125836</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159942</v>
+        <v>158415</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5201604689933543</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4631766959419675</v>
+        <v>0.4564302151337432</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5801406112531921</v>
+        <v>0.5746019893893047</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>382</v>
@@ -1920,19 +1920,19 @@
         <v>408079</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>382311</v>
+        <v>377391</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>433594</v>
+        <v>432372</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5578542426457234</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5226278630633493</v>
+        <v>0.5159028248795898</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5927336413943407</v>
+        <v>0.5910635237015097</v>
       </c>
     </row>
     <row r="21">
@@ -2024,19 +2024,19 @@
         <v>5953</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2030</v>
+        <v>2055</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12913</v>
+        <v>12432</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02022410162890868</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006896216847182358</v>
+        <v>0.006980786380924305</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04386938970036319</v>
+        <v>0.04223731999530573</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2045,19 +2045,19 @@
         <v>3846</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9298</v>
+        <v>9595</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02061919500804637</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005108858150475844</v>
+        <v>0.005077180748243109</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04984319210172031</v>
+        <v>0.05143850445975456</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2066,19 +2066,19 @@
         <v>9799</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4709</v>
+        <v>5135</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17709</v>
+        <v>17871</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02037735984151169</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009792144351257595</v>
+        <v>0.01067750282858294</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03682712516993017</v>
+        <v>0.03716330652797267</v>
       </c>
     </row>
     <row r="23">
@@ -2095,19 +2095,19 @@
         <v>7799</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3165</v>
+        <v>2957</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18516</v>
+        <v>17366</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02649564064455972</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01075427019877462</v>
+        <v>0.01004572696801681</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06290450159230525</v>
+        <v>0.05899737704922996</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2116,19 +2116,19 @@
         <v>5484</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2150</v>
+        <v>2001</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12170</v>
+        <v>12032</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02939655649778651</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01152571006188996</v>
+        <v>0.01072691974220824</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06524138363156705</v>
+        <v>0.06450048237304418</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -2137,19 +2137,19 @@
         <v>13282</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6996</v>
+        <v>7149</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23296</v>
+        <v>23979</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02762091685026994</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01454816730606371</v>
+        <v>0.01486596335918911</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04844461595289254</v>
+        <v>0.04986473958031061</v>
       </c>
     </row>
     <row r="24">
@@ -2166,19 +2166,19 @@
         <v>33955</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24009</v>
+        <v>23217</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>46736</v>
+        <v>46659</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1153568317886712</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08156780715041349</v>
+        <v>0.07887749081636825</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1587784518226644</v>
+        <v>0.15851895808862</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -2187,19 +2187,19 @@
         <v>19010</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11363</v>
+        <v>11351</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>30091</v>
+        <v>29502</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1019103389038334</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06091625614424197</v>
+        <v>0.0608537350379928</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1613145568588586</v>
+        <v>0.1581558197173391</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>48</v>
@@ -2208,19 +2208,19 @@
         <v>52965</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>39309</v>
+        <v>39556</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>67500</v>
+        <v>68890</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1101408864599816</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08174431344530725</v>
+        <v>0.08225720098722794</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1403682264152969</v>
+        <v>0.1432570754805232</v>
       </c>
     </row>
     <row r="25">
@@ -2237,19 +2237,19 @@
         <v>54340</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41681</v>
+        <v>41665</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68910</v>
+        <v>69583</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1846115578495068</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1416043675693117</v>
+        <v>0.1415525760693718</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2341118670118654</v>
+        <v>0.2363969947035566</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -2258,19 +2258,19 @@
         <v>38492</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27521</v>
+        <v>27781</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51057</v>
+        <v>49636</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2063542192454092</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.147539222886009</v>
+        <v>0.1489313463994565</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2737120824507476</v>
+        <v>0.2660942102972816</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -2279,19 +2279,19 @@
         <v>92832</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76396</v>
+        <v>76246</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>112970</v>
+        <v>111632</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1930456182481938</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1588659212014545</v>
+        <v>0.158555489123522</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2349240170318946</v>
+        <v>0.2321399212885678</v>
       </c>
     </row>
     <row r="26">
@@ -2308,19 +2308,19 @@
         <v>192300</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>174185</v>
+        <v>175397</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>208400</v>
+        <v>209719</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6533118680883536</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5917703936610451</v>
+        <v>0.5958873478091358</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7080098089833237</v>
+        <v>0.7124924530814839</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>108</v>
@@ -2329,19 +2329,19 @@
         <v>119704</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>106067</v>
+        <v>105153</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>133145</v>
+        <v>133362</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6417196903449245</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5686134786361534</v>
+        <v>0.5637154160577956</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7137745829506579</v>
+        <v>0.714938145040288</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>280</v>
@@ -2350,19 +2350,19 @@
         <v>312003</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>289602</v>
+        <v>290215</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>335429</v>
+        <v>332280</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.648815218600043</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6022331894290205</v>
+        <v>0.6035078130438363</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6975303464792093</v>
+        <v>0.690982471865951</v>
       </c>
     </row>
     <row r="27">
@@ -2454,19 +2454,19 @@
         <v>22549</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14638</v>
+        <v>14557</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>32772</v>
+        <v>34232</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01598678116151256</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01037793331750162</v>
+        <v>0.01032036665859986</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02323462851440288</v>
+        <v>0.02427020284916133</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>17</v>
@@ -2475,19 +2475,19 @@
         <v>17738</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10548</v>
+        <v>11554</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27898</v>
+        <v>29333</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01887158917614935</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01122174820437195</v>
+        <v>0.01229198220431402</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02968054809287374</v>
+        <v>0.03120790421050651</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>39</v>
@@ -2496,19 +2496,19 @@
         <v>40287</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>28120</v>
+        <v>29235</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>54726</v>
+        <v>54669</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0171404273456298</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01196400112706708</v>
+        <v>0.01243843852965568</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02328359779388826</v>
+        <v>0.02325946161885791</v>
       </c>
     </row>
     <row r="29">
@@ -2525,19 +2525,19 @@
         <v>50441</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>37291</v>
+        <v>37685</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>66754</v>
+        <v>68505</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03576211772070688</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02643836316030126</v>
+        <v>0.02671789756101297</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04732779229363572</v>
+        <v>0.04856885542216489</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>33</v>
@@ -2546,19 +2546,19 @@
         <v>39235</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>27278</v>
+        <v>27493</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>55389</v>
+        <v>54453</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0417417767725391</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02902060846996176</v>
+        <v>0.02924932720389013</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0589280703903597</v>
+        <v>0.05793281090969142</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>77</v>
@@ -2567,19 +2567,19 @@
         <v>89676</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>70539</v>
+        <v>70134</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>110850</v>
+        <v>111764</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03815340712799761</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03001154636831829</v>
+        <v>0.0298391413848162</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04716200162200839</v>
+        <v>0.04755095375751375</v>
       </c>
     </row>
     <row r="30">
@@ -2596,19 +2596,19 @@
         <v>194189</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>167259</v>
+        <v>170789</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>221994</v>
+        <v>224556</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1376769421998776</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1185837021936134</v>
+        <v>0.1210864058283832</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1573901022027773</v>
+        <v>0.1592061991106737</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>143</v>
@@ -2617,19 +2617,19 @@
         <v>154623</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>133118</v>
+        <v>131420</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>179167</v>
+        <v>179304</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1645038780582864</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1416240238938057</v>
+        <v>0.1398174527736347</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1906153768782871</v>
+        <v>0.1907610798814423</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>326</v>
@@ -2638,19 +2638,19 @@
         <v>348813</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>316503</v>
+        <v>313342</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>385675</v>
+        <v>387173</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1484051404118851</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1346587017441258</v>
+        <v>0.133313666500187</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1640885653220797</v>
+        <v>0.1647258101406169</v>
       </c>
     </row>
     <row r="31">
@@ -2667,19 +2667,19 @@
         <v>322453</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>292619</v>
+        <v>291476</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>354395</v>
+        <v>356556</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2286137231757625</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2074618595130645</v>
+        <v>0.2066513821068299</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2512597271930507</v>
+        <v>0.2527920255806199</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>224</v>
@@ -2688,19 +2688,19 @@
         <v>238277</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>214226</v>
+        <v>211128</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>266648</v>
+        <v>264733</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2535026464885433</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2279145338935185</v>
+        <v>0.2246187386854148</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2836862887841153</v>
+        <v>0.2816492541771596</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>534</v>
@@ -2709,19 +2709,19 @@
         <v>560730</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>518924</v>
+        <v>517908</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>603702</v>
+        <v>603245</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2385669024725801</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2207801699544022</v>
+        <v>0.2203481868759943</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.256849581150693</v>
+        <v>0.2566553190587382</v>
       </c>
     </row>
     <row r="32">
@@ -2738,19 +2738,19 @@
         <v>820838</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>782609</v>
+        <v>780742</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>859369</v>
+        <v>856483</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5819604357421405</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5548563729464028</v>
+        <v>0.5535330830882597</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6092782334894634</v>
+        <v>0.607232154848928</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>450</v>
@@ -2759,19 +2759,19 @@
         <v>490065</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>458133</v>
+        <v>457567</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>525638</v>
+        <v>521023</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5213801095044819</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4874074991229496</v>
+        <v>0.48680563167666</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5592258329807275</v>
+        <v>0.5543159286889769</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1217</v>
@@ -2780,19 +2780,19 @@
         <v>1310903</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1261941</v>
+        <v>1261164</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1363181</v>
+        <v>1361245</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5577341226419075</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5369025607535698</v>
+        <v>0.5365720089377055</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5799759916205008</v>
+        <v>0.5791526045597813</v>
       </c>
     </row>
     <row r="33">
@@ -3124,19 +3124,19 @@
         <v>11331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6222</v>
+        <v>6140</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20573</v>
+        <v>19338</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03859609879357611</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0211936969129965</v>
+        <v>0.02091269494731494</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07007596577030717</v>
+        <v>0.06586895642488939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -3145,19 +3145,19 @@
         <v>5179</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1967</v>
+        <v>1983</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11513</v>
+        <v>11730</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01868119932213982</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007096469014282193</v>
+        <v>0.007153855597818902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04152755930138327</v>
+        <v>0.0423096442687848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -3166,19 +3166,19 @@
         <v>16510</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10237</v>
+        <v>9955</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26525</v>
+        <v>25822</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02892381862284067</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01793370969739223</v>
+        <v>0.01743985704628599</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04646937166435621</v>
+        <v>0.04523738433505583</v>
       </c>
     </row>
     <row r="5">
@@ -3195,19 +3195,19 @@
         <v>18836</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11770</v>
+        <v>11296</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29547</v>
+        <v>30000</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0641611776764468</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04009273460393407</v>
+        <v>0.03847848169309087</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1006437174538189</v>
+        <v>0.1021885780845779</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -3216,19 +3216,19 @@
         <v>25936</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16972</v>
+        <v>17387</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37771</v>
+        <v>37862</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09355315204396528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06121968068433983</v>
+        <v>0.06271656610624171</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1362436280011853</v>
+        <v>0.1365711500479588</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -3237,19 +3237,19 @@
         <v>44772</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33059</v>
+        <v>33446</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59737</v>
+        <v>59701</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0784362891959131</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05791665447710059</v>
+        <v>0.05859471695113982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1046538615918267</v>
+        <v>0.104590245487698</v>
       </c>
     </row>
     <row r="6">
@@ -3266,19 +3266,19 @@
         <v>85284</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>70722</v>
+        <v>70278</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>102806</v>
+        <v>101663</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2904996503697071</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.240895458192331</v>
+        <v>0.2393837812505597</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3501823659699288</v>
+        <v>0.3462887291212549</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>69</v>
@@ -3287,19 +3287,19 @@
         <v>67567</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53826</v>
+        <v>53643</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>82428</v>
+        <v>81458</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2437192452504425</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1941548202211242</v>
+        <v>0.1934955813508216</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.297325149861343</v>
+        <v>0.2938272714650733</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>144</v>
@@ -3308,19 +3308,19 @@
         <v>152851</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>131127</v>
+        <v>131765</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>175061</v>
+        <v>174342</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2677793155036933</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2297220285532354</v>
+        <v>0.2308387781761309</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3066897737415279</v>
+        <v>0.3054300166877008</v>
       </c>
     </row>
     <row r="7">
@@ -3337,19 +3337,19 @@
         <v>78911</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63742</v>
+        <v>63847</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93841</v>
+        <v>94124</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2687907839534138</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2171195988195375</v>
+        <v>0.2174780782846286</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3196456167789762</v>
+        <v>0.3206088183318245</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -3358,19 +3358,19 @@
         <v>86510</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71186</v>
+        <v>70915</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>103172</v>
+        <v>102557</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3120486348079489</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2567758328128556</v>
+        <v>0.2557988656973604</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3721532795780803</v>
+        <v>0.3699346178470935</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>157</v>
@@ -3379,19 +3379,19 @@
         <v>165421</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>145437</v>
+        <v>142495</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>189452</v>
+        <v>185007</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2898002825777508</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2547904534391591</v>
+        <v>0.249636301155031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3319014592184694</v>
+        <v>0.3241143095082316</v>
       </c>
     </row>
     <row r="8">
@@ -3408,19 +3408,19 @@
         <v>99215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82563</v>
+        <v>82199</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>117019</v>
+        <v>116763</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3379522892068562</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2812303831024087</v>
+        <v>0.2799903125548599</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3985971391083857</v>
+        <v>0.3977237581508615</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>89</v>
@@ -3429,19 +3429,19 @@
         <v>92040</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76750</v>
+        <v>76963</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>107027</v>
+        <v>109949</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3319977685755036</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2768436556424521</v>
+        <v>0.2776119498346242</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3860588016710944</v>
+        <v>0.3965979470700258</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>180</v>
@@ -3450,19 +3450,19 @@
         <v>191255</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>167979</v>
+        <v>169696</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>212944</v>
+        <v>216016</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3350602940998021</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.294282964024277</v>
+        <v>0.2972900305548221</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3730558999332481</v>
+        <v>0.3784385304454407</v>
       </c>
     </row>
     <row r="9">
@@ -3554,19 +3554,19 @@
         <v>14892</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8012</v>
+        <v>7952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25374</v>
+        <v>24186</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03813732055492477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02051781859944344</v>
+        <v>0.02036614781673014</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06498348039280927</v>
+        <v>0.06193984128545155</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3575,19 +3575,19 @@
         <v>13239</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6742</v>
+        <v>7545</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22044</v>
+        <v>22404</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04902445607069698</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02496726792216205</v>
+        <v>0.02793769354256648</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0816275729495294</v>
+        <v>0.08296201439132779</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -3596,19 +3596,19 @@
         <v>28131</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17017</v>
+        <v>18558</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39798</v>
+        <v>40815</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04258846363940088</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02576327913528458</v>
+        <v>0.02809514043765627</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06025249723592786</v>
+        <v>0.06179174224087478</v>
       </c>
     </row>
     <row r="11">
@@ -3625,19 +3625,19 @@
         <v>19839</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12154</v>
+        <v>12248</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31032</v>
+        <v>30198</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05080819401650886</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03112547686974117</v>
+        <v>0.03136742780201503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07947243381435214</v>
+        <v>0.07733656669450774</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -3646,19 +3646,19 @@
         <v>24147</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16300</v>
+        <v>16620</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35190</v>
+        <v>34548</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08941488892797959</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06035836786289311</v>
+        <v>0.06154390151743375</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1303065788577935</v>
+        <v>0.1279287834222081</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>42</v>
@@ -3667,19 +3667,19 @@
         <v>43986</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32352</v>
+        <v>33044</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58907</v>
+        <v>59599</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06659232041235665</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04897836430607679</v>
+        <v>0.05002624600085691</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08918224210158789</v>
+        <v>0.09023022240974804</v>
       </c>
     </row>
     <row r="12">
@@ -3696,19 +3696,19 @@
         <v>100001</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>83685</v>
+        <v>83936</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>117760</v>
+        <v>119412</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2561022959875713</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2143167276772784</v>
+        <v>0.2149581573880197</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3015812944970616</v>
+        <v>0.3058133423493067</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>52</v>
@@ -3717,19 +3717,19 @@
         <v>51018</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38616</v>
+        <v>38631</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64709</v>
+        <v>64452</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1889181073132103</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1429957990080779</v>
+        <v>0.1430511899680089</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2396152955972742</v>
+        <v>0.2386632283807207</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>146</v>
@@ -3738,19 +3738,19 @@
         <v>151019</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>129811</v>
+        <v>129192</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>172577</v>
+        <v>172136</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2286344247214526</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1965265144014207</v>
+        <v>0.1955886442165493</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.261271516862113</v>
+        <v>0.2606042370973978</v>
       </c>
     </row>
     <row r="13">
@@ -3767,19 +3767,19 @@
         <v>118644</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>101624</v>
+        <v>100709</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138074</v>
+        <v>140519</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3038460524855104</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2602571905894517</v>
+        <v>0.2579155105290036</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3536061090793174</v>
+        <v>0.3598680507427008</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -3788,19 +3788,19 @@
         <v>76754</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62700</v>
+        <v>62099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92142</v>
+        <v>91015</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2842189508167262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2321753354767734</v>
+        <v>0.2299522982804192</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3411991073928911</v>
+        <v>0.337026528544452</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>192</v>
@@ -3809,19 +3809,19 @@
         <v>195398</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>172104</v>
+        <v>173325</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>220142</v>
+        <v>218848</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2958216242293584</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2605560430910342</v>
+        <v>0.262404002552295</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3332825473664699</v>
+        <v>0.3313228735701613</v>
       </c>
     </row>
     <row r="14">
@@ -3838,19 +3838,19 @@
         <v>137098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>118752</v>
+        <v>119455</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>157093</v>
+        <v>156371</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3511061369554846</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3041214848640685</v>
+        <v>0.3059234641946352</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.402314193089479</v>
+        <v>0.4004636345427225</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>99</v>
@@ -3859,19 +3859,19 @@
         <v>104895</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>87050</v>
+        <v>90684</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>120322</v>
+        <v>121337</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.388423596871387</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3223428509432345</v>
+        <v>0.3358014701472578</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4455499163779377</v>
+        <v>0.4493093545778406</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>229</v>
@@ -3880,19 +3880,19 @@
         <v>241993</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>218709</v>
+        <v>218260</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>270107</v>
+        <v>269722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3663631669974315</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3311129771400709</v>
+        <v>0.3304329421519883</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4089269245325444</v>
+        <v>0.4083434362604726</v>
       </c>
     </row>
     <row r="15">
@@ -3984,19 +3984,19 @@
         <v>3348</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9293</v>
+        <v>9887</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007340163377243334</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002289476087388317</v>
+        <v>0.002289652861098725</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0203716440583312</v>
+        <v>0.02167398165083862</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -4005,19 +4005,19 @@
         <v>5861</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1904</v>
+        <v>1883</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13079</v>
+        <v>13153</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02016643565565732</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006551917134061689</v>
+        <v>0.006479581986903123</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04500128961142537</v>
+        <v>0.04525681470379331</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -4026,19 +4026,19 @@
         <v>9210</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3942</v>
+        <v>4141</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17332</v>
+        <v>17685</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01233165745725293</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005277773270829079</v>
+        <v>0.005544746328279835</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02320776472740218</v>
+        <v>0.0236804144053098</v>
       </c>
     </row>
     <row r="17">
@@ -4055,19 +4055,19 @@
         <v>23480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14641</v>
+        <v>14600</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35001</v>
+        <v>34220</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05147050835126781</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03209476053951391</v>
+        <v>0.03200371639297261</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07672476350155071</v>
+        <v>0.07501276974725991</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -4076,19 +4076,19 @@
         <v>17437</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10659</v>
+        <v>10963</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27090</v>
+        <v>26339</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05999775088092658</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03667390624080231</v>
+        <v>0.03771936118962434</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09320803086096603</v>
+        <v>0.09062433879503154</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -4097,19 +4097,19 @@
         <v>40918</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30874</v>
+        <v>29017</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56041</v>
+        <v>55552</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05478898465378873</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04134099294066831</v>
+        <v>0.0388542358627778</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07503888642103469</v>
+        <v>0.07438392233890891</v>
       </c>
     </row>
     <row r="18">
@@ -4126,19 +4126,19 @@
         <v>68085</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>53438</v>
+        <v>51777</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>85454</v>
+        <v>85109</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1492467396426395</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1171405446197672</v>
+        <v>0.1134995031703388</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1873209865534567</v>
+        <v>0.1865653765495854</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>48</v>
@@ -4147,19 +4147,19 @@
         <v>47762</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36789</v>
+        <v>36437</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>60244</v>
+        <v>60839</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1643383993412278</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1265799773492006</v>
+        <v>0.1253704419311459</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2072855146183994</v>
+        <v>0.2093325304214181</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>111</v>
@@ -4168,19 +4168,19 @@
         <v>115847</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>97047</v>
+        <v>95764</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>138096</v>
+        <v>138442</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1551198357697036</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1299459420527634</v>
+        <v>0.1282284635886859</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1849115684212138</v>
+        <v>0.1853749648884991</v>
       </c>
     </row>
     <row r="19">
@@ -4197,19 +4197,19 @@
         <v>126118</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>108668</v>
+        <v>107612</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>147933</v>
+        <v>145839</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2764614717949055</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2382093971949712</v>
+        <v>0.2358938552852496</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3242805672833925</v>
+        <v>0.3196914903909759</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>88</v>
@@ -4218,19 +4218,19 @@
         <v>85287</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69182</v>
+        <v>70968</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101335</v>
+        <v>101987</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2934497683816845</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2380363195966921</v>
+        <v>0.2441821537127044</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3486668504617267</v>
+        <v>0.3509100188243219</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>206</v>
@@ -4239,19 +4239,19 @@
         <v>211405</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>189463</v>
+        <v>186985</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>238339</v>
+        <v>234354</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2830726663806515</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2536922658123038</v>
+        <v>0.2503734303765608</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.31913732846603</v>
+        <v>0.3138012466039756</v>
       </c>
     </row>
     <row r="20">
@@ -4268,19 +4268,19 @@
         <v>235156</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>212974</v>
+        <v>213185</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257214</v>
+        <v>256614</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5154811168339438</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4668553813265936</v>
+        <v>0.4673174083821062</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5638334559859491</v>
+        <v>0.5625190960358348</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>132</v>
@@ -4289,19 +4289,19 @@
         <v>134287</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>118357</v>
+        <v>116255</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152273</v>
+        <v>151174</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4620476457405037</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.40723596666917</v>
+        <v>0.4000027150618342</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5239323141984112</v>
+        <v>0.520151406734903</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>354</v>
@@ -4310,19 +4310,19 @@
         <v>369444</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>341739</v>
+        <v>342688</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>397206</v>
+        <v>398503</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4946868557386032</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4575902795745114</v>
+        <v>0.4588606081861724</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5318601361108516</v>
+        <v>0.5335966002437319</v>
       </c>
     </row>
     <row r="21">
@@ -4414,19 +4414,19 @@
         <v>9068</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4306</v>
+        <v>4257</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17680</v>
+        <v>16834</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0329549004808224</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01564857161492461</v>
+        <v>0.01547234256884663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06425787614706908</v>
+        <v>0.06118240872382671</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -4435,19 +4435,19 @@
         <v>3225</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8921</v>
+        <v>8600</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01662016124983118</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00485055784453237</v>
+        <v>0.004851831441182124</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0459672659317569</v>
+        <v>0.04431686612275783</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -4456,19 +4456,19 @@
         <v>12293</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6829</v>
+        <v>6863</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22108</v>
+        <v>21935</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02619896396938448</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01455347157210862</v>
+        <v>0.01462725052210299</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04711782210129224</v>
+        <v>0.04674888375774353</v>
       </c>
     </row>
     <row r="23">
@@ -4485,19 +4485,19 @@
         <v>12778</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6291</v>
+        <v>7070</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20973</v>
+        <v>21464</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04643990084150412</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02286541520009526</v>
+        <v>0.02569629640496705</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0762254554825456</v>
+        <v>0.07800814966651921</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -4506,19 +4506,19 @@
         <v>6576</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2795</v>
+        <v>2784</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12320</v>
+        <v>13368</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0338883547394661</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01440289393931067</v>
+        <v>0.01434482414095731</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06348357831665931</v>
+        <v>0.06888737518151963</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
@@ -4527,19 +4527,19 @@
         <v>19354</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11859</v>
+        <v>12353</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29391</v>
+        <v>29665</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04124866715318957</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02527417383945908</v>
+        <v>0.02632688676769285</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06263922533422356</v>
+        <v>0.06322262103188428</v>
       </c>
     </row>
     <row r="24">
@@ -4556,19 +4556,19 @@
         <v>31794</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21055</v>
+        <v>22460</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>44264</v>
+        <v>45637</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1155521935445619</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07652045201016003</v>
+        <v>0.08162968253475016</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.160873812917888</v>
+        <v>0.1658630464438867</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>18</v>
@@ -4577,19 +4577,19 @@
         <v>18372</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11211</v>
+        <v>11591</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>27878</v>
+        <v>27986</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09467213720602247</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05776958410046127</v>
+        <v>0.05972579323971167</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1436561752520483</v>
+        <v>0.1442126059915404</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -4598,19 +4598,19 @@
         <v>50166</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>36362</v>
+        <v>36063</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>66226</v>
+        <v>64759</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1069163449409439</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07749555980496224</v>
+        <v>0.07685898772092487</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1411427512199523</v>
+        <v>0.138016953605637</v>
       </c>
     </row>
     <row r="25">
@@ -4627,19 +4627,19 @@
         <v>53211</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40759</v>
+        <v>40473</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66659</v>
+        <v>67435</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.193390878964468</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.148135038807757</v>
+        <v>0.1470935341129168</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2422642957440354</v>
+        <v>0.2450847964426223</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -4648,19 +4648,19 @@
         <v>43480</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32442</v>
+        <v>32759</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56050</v>
+        <v>56720</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2240526107836432</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1671749191301904</v>
+        <v>0.1688074335609112</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2888255794051354</v>
+        <v>0.292274683310779</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>91</v>
@@ -4669,19 +4669,19 @@
         <v>96692</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>79920</v>
+        <v>79457</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>117270</v>
+        <v>116368</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2060723616971748</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1703291001431919</v>
+        <v>0.1693403206506243</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2499291709707437</v>
+        <v>0.248006268569552</v>
       </c>
     </row>
     <row r="26">
@@ -4698,19 +4698,19 @@
         <v>168298</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>151124</v>
+        <v>149854</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>184842</v>
+        <v>183715</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6116621261686435</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5492445384992277</v>
+        <v>0.5446300479217235</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6717888280355744</v>
+        <v>0.6676945386528228</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>114</v>
@@ -4719,19 +4719,19 @@
         <v>122408</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>109259</v>
+        <v>108973</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>135791</v>
+        <v>135324</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6307667360210371</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5630080268776421</v>
+        <v>0.5615338973414035</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6997256253579287</v>
+        <v>0.6973195393985251</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>267</v>
@@ -4740,19 +4740,19 @@
         <v>290707</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>268350</v>
+        <v>269717</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>311500</v>
+        <v>312860</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6195636622393071</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5719154649748266</v>
+        <v>0.5748296582300142</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6638795552544451</v>
+        <v>0.6667769875841389</v>
       </c>
     </row>
     <row r="27">
@@ -4844,19 +4844,19 @@
         <v>38639</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26970</v>
+        <v>27719</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53694</v>
+        <v>53269</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02729892331468177</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01905504748390649</v>
+        <v>0.01958387650916835</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03793582569536244</v>
+        <v>0.03763575552148325</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>25</v>
@@ -4865,19 +4865,19 @@
         <v>27505</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19092</v>
+        <v>18520</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>39970</v>
+        <v>40247</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02665223894615842</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01850044274535438</v>
+        <v>0.01794637907547608</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03873111534615729</v>
+        <v>0.03899958074308513</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>60</v>
@@ -4886,19 +4886,19 @@
         <v>66143</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>51148</v>
+        <v>51273</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>85083</v>
+        <v>84438</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02702623634586416</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02089896004199191</v>
+        <v>0.02095006045298073</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03476506929934368</v>
+        <v>0.03450138594230545</v>
       </c>
     </row>
     <row r="29">
@@ -4915,19 +4915,19 @@
         <v>74934</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>58440</v>
+        <v>58872</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>93976</v>
+        <v>93100</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05294212928061472</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04128882328548008</v>
+        <v>0.04159389460863205</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06639568798279932</v>
+        <v>0.06577689530657548</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>74</v>
@@ -4936,19 +4936,19 @@
         <v>74097</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>59332</v>
+        <v>56794</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>91114</v>
+        <v>91224</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07180018771807985</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05749345348820268</v>
+        <v>0.05503384883194985</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08829061631969853</v>
+        <v>0.08839684666751242</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>142</v>
@@ -4957,19 +4957,19 @@
         <v>149030</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>127480</v>
+        <v>128366</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>175401</v>
+        <v>175090</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06089399427596007</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0520885521965013</v>
+        <v>0.05245073327428243</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07166895605343818</v>
+        <v>0.07154208596009179</v>
       </c>
     </row>
     <row r="30">
@@ -4986,19 +4986,19 @@
         <v>285164</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>253256</v>
+        <v>256046</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>314626</v>
+        <v>320273</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2014740852167167</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.178930353654004</v>
+        <v>0.1809014283232813</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2222892979567945</v>
+        <v>0.2262786682560829</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>187</v>
@@ -5007,19 +5007,19 @@
         <v>184719</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>160655</v>
+        <v>161785</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>207588</v>
+        <v>211138</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1789946541946401</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1556763329599618</v>
+        <v>0.1567710219857943</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2011548860041766</v>
+        <v>0.2045944641264945</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>446</v>
@@ -5028,19 +5028,19 @@
         <v>469884</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>432633</v>
+        <v>431215</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>510534</v>
+        <v>509317</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1919951984451812</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1767745895719664</v>
+        <v>0.176195245373139</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2086049056087735</v>
+        <v>0.2081076228897009</v>
       </c>
     </row>
     <row r="31">
@@ -5057,19 +5057,19 @@
         <v>376885</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>346525</v>
+        <v>342812</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>411605</v>
+        <v>407655</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2662764412706335</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.24482645606456</v>
+        <v>0.2422034184489633</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2908068275041449</v>
+        <v>0.2880162913092492</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>288</v>
@@ -5078,19 +5078,19 @@
         <v>292031</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>264440</v>
+        <v>264976</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>323222</v>
+        <v>323897</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2829805415589943</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2562445093644295</v>
+        <v>0.2567645275193556</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3132046878537135</v>
+        <v>0.3138588461056343</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>646</v>
@@ -5099,19 +5099,19 @@
         <v>668916</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>628383</v>
+        <v>630030</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>718847</v>
+        <v>716806</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.273320048161673</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2567581046873208</v>
+        <v>0.2574313974133483</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2937218919004787</v>
+        <v>0.2928880624917146</v>
       </c>
     </row>
     <row r="32">
@@ -5128,19 +5128,19 @@
         <v>639768</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>599460</v>
+        <v>600531</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>675488</v>
+        <v>679222</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4520084209173533</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4235302134109005</v>
+        <v>0.4242865777488977</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4772453173049576</v>
+        <v>0.4798832141672873</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>434</v>
@@ -5149,19 +5149,19 @@
         <v>453631</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>422753</v>
+        <v>422109</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>486142</v>
+        <v>483113</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4395723775821273</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4096510688874815</v>
+        <v>0.409027313129413</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4710757382559722</v>
+        <v>0.4681406295191926</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1030</v>
@@ -5170,19 +5170,19 @@
         <v>1093399</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1041891</v>
+        <v>1045779</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1142536</v>
+        <v>1142440</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4467645227713216</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4257182460174797</v>
+        <v>0.4273067545748181</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4668420049352755</v>
+        <v>0.4668028037865991</v>
       </c>
     </row>
     <row r="33">
